--- a/apilist.xlsx
+++ b/apilist.xlsx
@@ -163,8 +163,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -193,36 +193,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,36 +207,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -274,9 +215,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,31 +238,67 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -323,6 +307,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,37 +343,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,139 +517,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,17 +546,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,26 +564,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,6 +596,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -619,153 +628,144 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1109,7 +1109,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/apilist.xlsx
+++ b/apilist.xlsx
@@ -328,12 +328,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -633,103 +645,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -738,7 +750,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -747,7 +759,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -756,7 +768,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -771,14 +783,14 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -789,6 +801,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1108,8 +1138,8 @@
   <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1145,25 +1175,25 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1214,71 +1244,71 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1306,25 +1336,25 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="7" t="s">
         <v>42</v>
       </c>
     </row>

--- a/apilist.xlsx
+++ b/apilist.xlsx
@@ -163,8 +163,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -192,10 +192,109 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,88 +307,13 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -297,32 +321,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,7 +337,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,6 +355,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -367,169 +439,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,24 +558,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -587,30 +569,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,144 +598,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -809,16 +809,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1138,8 +1138,8 @@
   <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1244,71 +1244,71 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="8">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1336,25 +1336,25 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="6">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1385,6 +1385,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/apilist.xlsx
+++ b/apilist.xlsx
@@ -162,10 +162,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -200,69 +200,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,6 +223,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -283,8 +267,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,19 +299,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -321,6 +313,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -328,7 +328,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,193 +343,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,6 +567,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -584,17 +596,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,18 +617,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,152 +639,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -813,12 +807,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1139,7 +1127,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1336,25 +1324,25 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="8">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="5" t="s">
         <v>42</v>
       </c>
     </row>

--- a/apilist.xlsx
+++ b/apilist.xlsx
@@ -162,10 +162,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -201,15 +201,30 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,6 +238,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -231,8 +253,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,23 +290,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,59 +327,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -349,13 +349,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,163 +439,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,6 +552,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -563,39 +572,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,6 +593,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -626,11 +620,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,139 +639,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1127,7 +1127,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/apilist.xlsx
+++ b/apilist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>序号</t>
   </si>
@@ -61,9 +61,6 @@
     <t>获取用户绑定的社交账号、邀请码、荣誉信息</t>
   </si>
   <si>
-    <t>GET</t>
-  </si>
-  <si>
     <t>openid</t>
   </si>
   <si>
@@ -155,6 +152,21 @@
   </si>
   <si>
     <t>通过二维码参数分析进入信息</t>
+  </si>
+  <si>
+    <t>打开首页文章</t>
+  </si>
+  <si>
+    <t>请求文章数据</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>首页，文章页面</t>
+  </si>
+  <si>
+    <t>Article</t>
   </si>
 </sst>
 </file>
@@ -163,9 +175,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -192,9 +204,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,15 +233,76 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -224,7 +310,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,8 +324,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,84 +334,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -349,25 +361,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,151 +529,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,17 +573,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,31 +597,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,144 +626,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1124,10 +1136,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1196,16 +1208,16 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1213,19 +1225,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -1236,22 +1248,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1259,22 +1271,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1282,22 +1294,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1305,22 +1317,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
         <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
         <v>37</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>38</v>
-      </c>
-      <c r="G8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1328,22 +1340,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1351,13 +1363,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
         <v>43</v>
       </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1365,10 +1377,33 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
         <v>45</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/apilist.xlsx
+++ b/apilist.xlsx
@@ -174,10 +174,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -205,21 +205,69 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,24 +281,52 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,83 +334,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,13 +367,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,55 +409,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,97 +511,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,16 +583,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,26 +612,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,139 +651,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1139,7 +1139,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1390,19 +1390,19 @@
       <c r="B12" t="s">
         <v>46</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="5" t="s">
         <v>50</v>
       </c>
     </row>
